--- a/database/industries/folad/faspa/product/yearly.xlsx
+++ b/database/industries/folad/faspa/product/yearly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E34D6E-9701-4344-A64D-A2B6A54AE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="38">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -67,9 +66,6 @@
     <t>ورق,بندل,کلاف</t>
   </si>
   <si>
-    <t>لوله های گازی و صنعتی</t>
-  </si>
-  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -79,9 +75,6 @@
     <t>محصولات اجرتی</t>
   </si>
   <si>
-    <t>انواع لوله گازی و صنعتی</t>
-  </si>
-  <si>
     <t>میلیون ریال</t>
   </si>
   <si>
@@ -137,12 +130,15 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t>لوله</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,10 +587,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -785,7 +783,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>11</v>
@@ -809,7 +807,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -831,7 +829,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -855,7 +853,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -879,10 +877,10 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -903,7 +901,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>11</v>
@@ -927,10 +925,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
@@ -951,10 +949,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
@@ -975,10 +973,10 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
@@ -999,7 +997,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1023,7 +1021,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>11</v>
@@ -1047,7 +1045,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1099,7 +1097,7 @@
     </row>
     <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1155,10 +1153,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
@@ -1227,7 +1225,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>11</v>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1273,7 +1271,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>11</v>
@@ -1297,7 +1295,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>11</v>
@@ -1321,7 +1319,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
@@ -1345,10 +1343,10 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
@@ -1369,7 +1367,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>11</v>
@@ -1393,7 +1391,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1445,7 +1443,7 @@
     </row>
     <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1480,7 +1478,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
@@ -1501,10 +1499,10 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
@@ -1528,7 +1526,7 @@
         <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
@@ -1552,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
@@ -1573,10 +1571,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
@@ -1597,10 +1595,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
@@ -1621,10 +1619,10 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
@@ -1645,10 +1643,10 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -1669,10 +1667,10 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -1693,10 +1691,10 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
@@ -1717,10 +1715,10 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
@@ -1741,7 +1739,7 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -1793,7 +1791,7 @@
     </row>
     <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1828,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
@@ -1849,10 +1847,10 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
@@ -1876,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
@@ -1900,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
@@ -1921,10 +1919,10 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
@@ -1945,10 +1943,10 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -1969,10 +1967,10 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
@@ -1993,10 +1991,10 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -2017,10 +2015,10 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
@@ -2041,10 +2039,10 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
@@ -2065,10 +2063,10 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
@@ -2119,7 +2117,7 @@
     </row>
     <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2154,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
@@ -2175,10 +2173,10 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
@@ -2202,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
@@ -2226,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
@@ -2247,10 +2245,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
@@ -2271,10 +2269,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
@@ -2295,10 +2293,10 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
@@ -2319,10 +2317,10 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -2343,10 +2341,10 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
@@ -2367,10 +2365,10 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
@@ -2391,7 +2389,7 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -2443,7 +2441,7 @@
     </row>
     <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2478,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
@@ -2499,10 +2497,10 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -2526,7 +2524,7 @@
         <v>13</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
@@ -2550,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
@@ -2571,10 +2569,10 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
@@ -2595,10 +2593,10 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
@@ -2619,10 +2617,10 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
@@ -2643,10 +2641,10 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
@@ -2667,10 +2665,10 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
@@ -2691,10 +2689,10 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
@@ -2715,7 +2713,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>

--- a/database/industries/folad/faspa/product/yearly.xlsx
+++ b/database/industries/folad/faspa/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356797A-0479-4992-A110-E9E86F32A089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -66,6 +67,9 @@
     <t>ورق,بندل,کلاف</t>
   </si>
   <si>
+    <t>لوله های گازی و صنعتی</t>
+  </si>
+  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -75,6 +79,9 @@
     <t>محصولات اجرتی</t>
   </si>
   <si>
+    <t>انواع لوله گازی و صنعتی</t>
+  </si>
+  <si>
     <t>میلیون ریال</t>
   </si>
   <si>
@@ -130,15 +137,12 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t>لوله</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,19 +591,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,7 +611,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +623,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -633,7 +635,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -643,7 +645,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -655,7 +657,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -667,7 +669,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -677,7 +679,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -699,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -709,7 +711,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -733,7 +735,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -757,7 +759,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -781,9 +783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>11</v>
@@ -805,9 +807,9 @@
         <v>103372</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -827,9 +829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -851,9 +853,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>11</v>
@@ -875,12 +877,12 @@
         <v>15968</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -899,9 +901,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>11</v>
@@ -923,12 +925,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
@@ -947,12 +949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
@@ -971,12 +973,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
@@ -995,9 +997,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>11</v>
@@ -1019,9 +1021,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>11</v>
@@ -1043,9 +1045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1065,7 +1067,7 @@
         <v>121131</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1075,7 +1077,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1085,7 +1087,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1095,9 +1097,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1117,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1127,7 +1129,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -1151,12 +1153,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11" t="s">
@@ -1175,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>9981</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>14</v>
       </c>
@@ -1223,9 +1225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>11</v>
@@ -1247,9 +1249,9 @@
         <v>113207</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1269,9 +1271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>11</v>
@@ -1293,9 +1295,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>11</v>
@@ -1317,9 +1319,9 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
@@ -1341,12 +1343,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
@@ -1365,9 +1367,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>11</v>
@@ -1389,9 +1391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1411,7 +1413,7 @@
         <v>139863</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1421,7 +1423,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1431,7 +1433,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1441,9 +1443,9 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1463,7 +1465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1473,12 +1475,12 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
@@ -1497,12 +1499,12 @@
         <v>156496</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
@@ -1521,12 +1523,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
@@ -1545,12 +1547,12 @@
         <v>2211570</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
@@ -1569,12 +1571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
@@ -1593,12 +1595,12 @@
         <v>26635531</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
@@ -1617,12 +1619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
@@ -1641,12 +1643,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -1665,12 +1667,12 @@
         <v>19498</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
@@ -1689,12 +1691,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
@@ -1713,12 +1715,12 @@
         <v>580957</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
@@ -1737,9 +1739,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -1759,7 +1761,7 @@
         <v>29604052</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1769,7 +1771,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1779,7 +1781,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1789,9 +1791,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1811,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1821,12 +1823,12 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9" t="s">
@@ -1845,12 +1847,12 @@
         <v>223565714</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
@@ -1869,12 +1871,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
@@ -1893,12 +1895,12 @@
         <v>221577998</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
@@ -1917,12 +1919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
@@ -1941,12 +1943,12 @@
         <v>235281661</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -1965,12 +1967,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
@@ -1989,12 +1991,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -2013,12 +2015,12 @@
         <v>1220532</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
@@ -2037,12 +2039,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
@@ -2061,12 +2063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
@@ -2085,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2095,7 +2097,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2105,7 +2107,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2115,9 +2117,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2137,7 +2139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2147,12 +2149,12 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
@@ -2171,12 +2173,12 @@
         <v>-140762</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
@@ -2195,12 +2197,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
@@ -2219,12 +2221,12 @@
         <v>-2205118</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
@@ -2243,12 +2245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
@@ -2267,12 +2269,12 @@
         <v>-21862432</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11" t="s">
@@ -2291,12 +2293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
@@ -2315,12 +2317,12 @@
         <v>-15965</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11" t="s">
@@ -2339,12 +2341,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
@@ -2363,12 +2365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
@@ -2387,9 +2389,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -2409,7 +2411,7 @@
         <v>-24224277</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2419,7 +2421,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2429,7 +2431,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2439,9 +2441,9 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2461,7 +2463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2471,12 +2473,12 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
@@ -2495,12 +2497,12 @@
         <v>15734</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -2519,12 +2521,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
@@ -2543,12 +2545,12 @@
         <v>6452</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
@@ -2567,12 +2569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
@@ -2591,12 +2593,12 @@
         <v>4773099</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
@@ -2615,12 +2617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
@@ -2639,12 +2641,12 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
@@ -2663,12 +2665,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
@@ -2687,12 +2689,12 @@
         <v>580957</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
@@ -2711,9 +2713,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
